--- a/Excel_files/sklearn模型总结.xlsx
+++ b/Excel_files/sklearn模型总结.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guofei\Desktop\GitHub\StatisticsBlog\origin_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guofei8\Desktop\git\GitHub\StatisticsBlog\Excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17870" windowHeight="9570"/>
+    <workbookView xWindow="1395" yWindow="0" windowWidth="17865" windowHeight="9570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="sklearn_有监督" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="186">
   <si>
     <t>种类</t>
   </si>
@@ -1422,6 +1422,48 @@
 model.n_support_# get number of support vectors for each class
 model.decision_function_shape='ovo'
 dec = model.decision_function([[0.6,1]])</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>neural_network</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BernoulliRBM</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_components : int, 要压缩到多少维
+learning_rate
+batch_size : int, optional
+n_iter : int, optional
+verbose : int, optional. The verbosity level. The default, zero, means silent mode.
+random_state</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>有</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>有</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>intercept_hidden_ : array-like, shape (n_components,)
+Biases of the hidden units.
+intercept_visible_ : array-like, shape (n_features,)
+Biases of the visible units.
+components_ : array-like, shape (n_components, n_features)
+Weight matrix, where n_features in the number of visible units and n_components is the number of hidden units.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://scikit-learn.org/stable/modules/generated/sklearn.neural_network.BernoulliRBM.html</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1552,7 +1594,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1586,16 +1628,19 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1870,30 +1915,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.25" customWidth="1"/>
     <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="3" width="50.33203125" customWidth="1"/>
+    <col min="3" max="3" width="50.375" customWidth="1"/>
     <col min="4" max="4" width="6.5" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.375" customWidth="1"/>
     <col min="6" max="6" width="8.25" customWidth="1"/>
     <col min="7" max="7" width="12.75" customWidth="1"/>
-    <col min="8" max="8" width="5.08203125" customWidth="1"/>
-    <col min="9" max="9" width="6.58203125" customWidth="1"/>
-    <col min="10" max="10" width="4.33203125" customWidth="1"/>
+    <col min="8" max="8" width="5.125" customWidth="1"/>
+    <col min="9" max="9" width="6.625" customWidth="1"/>
+    <col min="10" max="10" width="4.375" customWidth="1"/>
     <col min="11" max="11" width="63.75" customWidth="1"/>
     <col min="12" max="12" width="82" customWidth="1"/>
     <col min="14" max="14" width="27" customWidth="1"/>
     <col min="15" max="15" width="55.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1931,8 +1976,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="28" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1961,8 +2006,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="42" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
+    <row r="3" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="12"/>
       <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
@@ -1989,8 +2034,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="56" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
+    <row r="4" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+      <c r="A4" s="12"/>
       <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
@@ -2019,8 +2064,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="56" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
+    <row r="5" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+      <c r="A5" s="12"/>
       <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
@@ -2049,8 +2094,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="84" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
+    <row r="6" spans="1:13" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="12"/>
       <c r="B6" s="2" t="s">
         <v>28</v>
       </c>
@@ -2079,8 +2124,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="140" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:13" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -2113,8 +2158,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="140" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
+    <row r="8" spans="1:13" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="12"/>
       <c r="B8" s="2" t="s">
         <v>36</v>
       </c>
@@ -2148,8 +2193,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="56" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
         <v>41</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -2182,8 +2227,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="70" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
+    <row r="10" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="12"/>
       <c r="B10" s="2" t="s">
         <v>46</v>
       </c>
@@ -2214,8 +2259,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="84" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
+    <row r="11" spans="1:13" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="12"/>
       <c r="B11" s="2" t="s">
         <v>49</v>
       </c>
@@ -2246,8 +2291,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="168" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
+    <row r="12" spans="1:13" ht="171" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
         <v>53</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -2280,8 +2325,8 @@
         <v>170</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="168" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
+    <row r="13" spans="1:13" ht="171" x14ac:dyDescent="0.2">
+      <c r="A13" s="12"/>
       <c r="B13" s="2" t="s">
         <v>56</v>
       </c>
@@ -2312,8 +2357,8 @@
         <v>171</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="112" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
+    <row r="14" spans="1:13" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
         <v>57</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -2348,8 +2393,8 @@
         <v>172</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="112" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
+    <row r="15" spans="1:13" ht="114" x14ac:dyDescent="0.2">
+      <c r="A15" s="12"/>
       <c r="B15" s="2" t="s">
         <v>61</v>
       </c>
@@ -2382,12 +2427,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="126" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
+    <row r="16" spans="1:13" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="12"/>
       <c r="B16" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>176</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -2416,8 +2461,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="126" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
+    <row r="17" spans="1:15" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="12"/>
       <c r="B17" s="2" t="s">
         <v>66</v>
       </c>
@@ -2450,7 +2495,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2464,8 +2509,8 @@
       <c r="K18" s="3"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:15" ht="350" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
+    <row r="19" spans="1:15" ht="356.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
         <v>70</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -2502,8 +2547,8 @@
         <v>174</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="350" x14ac:dyDescent="0.3">
-      <c r="A20" s="11"/>
+    <row r="20" spans="1:15" ht="356.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="12"/>
       <c r="B20" s="2" t="s">
         <v>76</v>
       </c>
@@ -2536,8 +2581,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="168" x14ac:dyDescent="0.3">
-      <c r="A21" s="11" t="s">
+    <row r="21" spans="1:15" ht="171" x14ac:dyDescent="0.2">
+      <c r="A21" s="12" t="s">
         <v>79</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -2572,8 +2617,8 @@
         <v>175</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="56" x14ac:dyDescent="0.3">
-      <c r="A22" s="11"/>
+    <row r="22" spans="1:15" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="12"/>
       <c r="B22" s="2" t="s">
         <v>83</v>
       </c>
@@ -2606,8 +2651,8 @@
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="294" x14ac:dyDescent="0.3">
-      <c r="A23" s="11"/>
+    <row r="23" spans="1:15" ht="299.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="12"/>
       <c r="B23" s="3" t="s">
         <v>87</v>
       </c>
@@ -2640,8 +2685,8 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="168" x14ac:dyDescent="0.3">
-      <c r="A24" s="11"/>
+    <row r="24" spans="1:15" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="12"/>
       <c r="B24" s="3" t="s">
         <v>90</v>
       </c>
@@ -2672,8 +2717,8 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="154" x14ac:dyDescent="0.3">
-      <c r="A25" s="11"/>
+    <row r="25" spans="1:15" ht="171" x14ac:dyDescent="0.2">
+      <c r="A25" s="12"/>
       <c r="B25" s="2" t="s">
         <v>92</v>
       </c>
@@ -2704,8 +2749,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="154" x14ac:dyDescent="0.3">
-      <c r="A26" s="11"/>
+    <row r="26" spans="1:15" ht="171" x14ac:dyDescent="0.2">
+      <c r="A26" s="12"/>
       <c r="B26" s="2" t="s">
         <v>160</v>
       </c>
@@ -2726,7 +2771,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N29" t="s">
         <v>93</v>
       </c>
@@ -2734,7 +2779,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N30" t="s">
         <v>95</v>
       </c>
@@ -2742,7 +2787,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>97</v>
       </c>
@@ -2750,7 +2795,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H46" t="s">
         <v>99</v>
       </c>
@@ -2801,29 +2846,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57.58203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.08203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="62.58203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="81.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="62.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="81.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2858,8 +2903,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="154" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:11" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
         <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2893,8 +2938,8 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="98" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
+    <row r="3" spans="1:11" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="12"/>
       <c r="B3" s="2" t="s">
         <v>110</v>
       </c>
@@ -2922,7 +2967,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2935,8 +2980,8 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="112" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:11" ht="114" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
         <v>114</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2966,8 +3011,8 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="70" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
+    <row r="6" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="12"/>
       <c r="B6" s="2" t="s">
         <v>119</v>
       </c>
@@ -2997,8 +3042,8 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="56" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
+    <row r="7" spans="1:11" ht="57" x14ac:dyDescent="0.2">
+      <c r="A7" s="12"/>
       <c r="B7" s="2" t="s">
         <v>123</v>
       </c>
@@ -3016,6 +3061,39 @@
       </c>
       <c r="K7" s="4" t="s">
         <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -3030,6 +3108,7 @@
     <hyperlink ref="K5" r:id="rId3"/>
     <hyperlink ref="K6" r:id="rId4"/>
     <hyperlink ref="K7" r:id="rId5"/>
+    <hyperlink ref="K8" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3045,18 +3124,18 @@
       <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.08203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="61.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="70.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="73.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="73.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3079,8 +3158,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="84" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
         <v>128</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -3100,8 +3179,8 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="12"/>
       <c r="B3" s="2" t="s">
         <v>133</v>
       </c>
@@ -3113,8 +3192,8 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="70" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
+    <row r="4" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="12"/>
       <c r="B4" s="2" t="s">
         <v>135</v>
       </c>
@@ -3128,8 +3207,8 @@
       <c r="F4" s="2"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="84" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
+    <row r="5" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="12"/>
       <c r="B5" s="2" t="s">
         <v>138</v>
       </c>
@@ -3147,7 +3226,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="126" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>142</v>
       </c>
@@ -3189,13 +3268,13 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" customWidth="1"/>
-    <col min="2" max="2" width="15.58203125" customWidth="1"/>
+    <col min="1" max="1" width="10.375" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>147</v>
       </c>
@@ -3203,7 +3282,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>147</v>
       </c>
@@ -3211,7 +3290,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>147</v>
       </c>
@@ -3222,12 +3301,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>153</v>
       </c>
@@ -3235,7 +3314,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>155</v>
       </c>
@@ -3243,7 +3322,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>157</v>
       </c>

--- a/Excel_files/sklearn模型总结.xlsx
+++ b/Excel_files/sklearn模型总结.xlsx
@@ -9,20 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="0" windowWidth="17865" windowHeight="9570" activeTab="1"/>
+    <workbookView xWindow="2325" yWindow="0" windowWidth="17865" windowHeight="9570"/>
   </bookViews>
   <sheets>
     <sheet name="sklearn_有监督" sheetId="1" r:id="rId1"/>
     <sheet name="sklearn_降维" sheetId="5" r:id="rId2"/>
     <sheet name="sklearn_聚类" sheetId="6" r:id="rId3"/>
-    <sheet name="numpy" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="175">
   <si>
     <t>种类</t>
   </si>
@@ -1103,39 +1102,6 @@
   </si>
   <si>
     <t>http://scikit-learn.org/stable/modules/generated/sklearn.mixture.GaussianMixture.html</t>
-  </si>
-  <si>
-    <t>ndarray</t>
-  </si>
-  <si>
-    <t>np.ones(shape=(20,2))</t>
-  </si>
-  <si>
-    <t>.shape</t>
-  </si>
-  <si>
-    <t>.size</t>
-  </si>
-  <si>
-    <t>总元素个数</t>
-  </si>
-  <si>
-    <t>reshape</t>
-  </si>
-  <si>
-    <t>list</t>
-  </si>
-  <si>
-    <t>len()</t>
-  </si>
-  <si>
-    <t>DataFrame</t>
-  </si>
-  <si>
-    <t>shape</t>
-  </si>
-  <si>
-    <t>size</t>
   </si>
   <si>
     <t>http://scikit-learn.org/stable/modules/generated/sklearn.ensemble.RandomForestClassifier.html</t>
@@ -1631,11 +1597,11 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1915,8 +1881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -1977,7 +1943,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2007,7 +1973,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="12"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
@@ -2035,7 +2001,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="57" x14ac:dyDescent="0.2">
-      <c r="A4" s="12"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
@@ -2065,7 +2031,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="57" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
@@ -2095,7 +2061,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="2" t="s">
         <v>28</v>
       </c>
@@ -2125,7 +2091,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="13" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -2159,7 +2125,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="2" t="s">
         <v>36</v>
       </c>
@@ -2194,7 +2160,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="57" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="13" t="s">
         <v>41</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -2228,7 +2194,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="2" t="s">
         <v>46</v>
       </c>
@@ -2260,7 +2226,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="2" t="s">
         <v>49</v>
       </c>
@@ -2292,14 +2258,14 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="171" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="13" t="s">
         <v>53</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>15</v>
@@ -2322,11 +2288,11 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="4" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="171" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="2" t="s">
         <v>56</v>
       </c>
@@ -2354,11 +2320,11 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="4" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="13" t="s">
         <v>57</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -2390,11 +2356,11 @@
         <v>60</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="114" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="2" t="s">
         <v>61</v>
       </c>
@@ -2428,12 +2394,12 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>15</v>
@@ -2455,14 +2421,14 @@
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="9" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="12"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="2" t="s">
         <v>66</v>
       </c>
@@ -2510,7 +2476,7 @@
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:15" ht="356.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="13" t="s">
         <v>70</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -2544,11 +2510,11 @@
         <v>75</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="356.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="12"/>
+      <c r="A20" s="13"/>
       <c r="B20" s="2" t="s">
         <v>76</v>
       </c>
@@ -2582,7 +2548,7 @@
       </c>
     </row>
     <row r="21" spans="1:15" ht="171" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="13" t="s">
         <v>79</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -2614,11 +2580,11 @@
         <v>82</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="12"/>
+      <c r="A22" s="13"/>
       <c r="B22" s="2" t="s">
         <v>83</v>
       </c>
@@ -2652,12 +2618,12 @@
       </c>
     </row>
     <row r="23" spans="1:15" ht="299.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="12"/>
+      <c r="A23" s="13"/>
       <c r="B23" s="3" t="s">
         <v>87</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>15</v>
@@ -2686,12 +2652,12 @@
       </c>
     </row>
     <row r="24" spans="1:15" ht="185.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="12"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="3" t="s">
         <v>90</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>15</v>
@@ -2718,44 +2684,44 @@
       </c>
     </row>
     <row r="25" spans="1:15" ht="171" x14ac:dyDescent="0.2">
-      <c r="A25" s="12"/>
+      <c r="A25" s="13"/>
       <c r="B25" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="8"/>
       <c r="L25" s="4" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="171" x14ac:dyDescent="0.2">
-      <c r="A26" s="12"/>
+      <c r="A26" s="13"/>
       <c r="B26" s="2" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -2765,10 +2731,10 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="9" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
@@ -2848,7 +2814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
     </sheetView>
@@ -2904,7 +2870,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="156.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2939,7 +2905,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="12"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="2" t="s">
         <v>110</v>
       </c>
@@ -2981,7 +2947,7 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="114" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="13" t="s">
         <v>114</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -3012,7 +2978,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="2" t="s">
         <v>119</v>
       </c>
@@ -3043,7 +3009,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="57" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="2" t="s">
         <v>123</v>
       </c>
@@ -3065,35 +3031,35 @@
     </row>
     <row r="8" spans="1:11" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>179</v>
+        <v>167</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>168</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>183</v>
+        <v>169</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>172</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="3" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -3159,7 +3125,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>128</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -3180,7 +3146,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="12"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="2" t="s">
         <v>133</v>
       </c>
@@ -3193,7 +3159,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="12"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="2" t="s">
         <v>135</v>
       </c>
@@ -3208,7 +3174,7 @@
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="2" t="s">
         <v>138</v>
       </c>
@@ -3258,80 +3224,4 @@
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.375" customWidth="1"/>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>153</v>
-      </c>
-      <c r="B7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>155</v>
-      </c>
-      <c r="B9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C10" t="s">
-        <v>151</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>